--- a/Assets/Excels/DamageCheck.xlsx
+++ b/Assets/Excels/DamageCheck.xlsx
@@ -71,7 +71,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+默认圆在中心
+矩形 startpos在宽的中点
+通过offset设置相对于起始点的偏移值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +291,18 @@
   </si>
   <si>
     <t>阵营类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="E16" activeCellId="1" sqref="C4 E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,14 +694,14 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="5" width="21.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="4" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,28 +715,31 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -712,28 +753,31 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -756,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>18</v>
@@ -767,8 +811,11 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -776,110 +823,113 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.2</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="H4" s="1">
+        <v>5</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excels/DamageCheck.xlsx
+++ b/Assets/Excels/DamageCheck.xlsx
@@ -175,12 +175,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 锁定目标 只有目标才会收到攻击，目标为0时，不会产生伤害</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>//ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +327,18 @@
   </si>
   <si>
     <t>Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定指定目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" activeCellId="1" sqref="C4 E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,7 +737,7 @@
     <col min="10" max="10" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +774,11 @@
       <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,8 +815,11 @@
       <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -814,8 +856,11 @@
       <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -847,84 +892,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Assets/Excels/DamageCheck.xlsx
+++ b/Assets/Excels/DamageCheck.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,6 +891,9 @@
       <c r="L4">
         <v>2</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>

--- a/Assets/Excels/DamageCheck.xlsx
+++ b/Assets/Excels/DamageCheck.xlsx
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
